--- a/compare_ans.xlsx
+++ b/compare_ans.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,18 +494,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>冰冷的钢铁</t>
+          <t>我们需要更多作物！</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>获得星银铸造的古代武器。</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>在「贵本之道-『玄此玉田』」中收获40个采集物。</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>我们需要更多作物！</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>346/800</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -515,7 +521,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>在「贵本之道-『玄此玉田』」中收获40个采集物。</t>
+          <t>在「贵本之道-『玄此玉田』」中收获200个采集物。</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -525,7 +531,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>338/800</t>
+          <t>346/800</t>
         </is>
       </c>
     </row>
@@ -537,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>在「贵本之道-『玄此玉田』」中收获200个采集物。</t>
+          <t>在「贵本之道-『玄此玉田』」中收获800个采集物。</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -547,29 +553,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>338/800</t>
+          <t>346/800</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>我们需要更多作物！</t>
+          <t>花开之洞天</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>在「贵本之道-『玄此玉田』」中收获800个采集物。</t>
+          <t>在「贵本之道-『薿此芝田』」中收获40个采集物。</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>我们需要更多作物！</t>
+          <t>花开之洞天</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>338/800</t>
+          <t>259/800</t>
         </is>
       </c>
     </row>
@@ -581,7 +587,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>在「贵本之道-『薿此芝田』」中收获40个采集物。</t>
+          <t>在「贵本之道-『薿此芝田』」中收获200个采集物。</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -591,7 +597,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>252/800</t>
+          <t>259/800</t>
         </is>
       </c>
     </row>
@@ -603,7 +609,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>在「贵本之道-『薿此芝田』」中收获200个采集物。</t>
+          <t>在「贵本之道-『薿此芝田』」中收获800个采集物。</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -613,29 +619,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>252/800</t>
+          <t>259/800</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>花开之洞天</t>
+          <t>采集时间到！</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>在「贵本之道-『薿此芝田』」中收获800个采集物。</t>
+          <t>在「贵本之道-『楚此渚田』」中收获40个采集物。</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>花开之洞天</t>
+          <t>采集时间到！</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>252/800</t>
+          <t>209/800</t>
         </is>
       </c>
     </row>
@@ -647,7 +653,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>在「贵本之道-『楚此渚田』」中收获40个采集物。</t>
+          <t>在「贵本之道-『楚此渚田』」中收获200个采集物。</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -657,7 +663,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>201/800</t>
+          <t>209/800</t>
         </is>
       </c>
     </row>
@@ -669,7 +675,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>在「贵本之道-『楚此渚田』」中收获200个采集物。</t>
+          <t>在「贵本之道-『楚此渚田』」中收获800个采集物。</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -679,41 +685,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>201/800</t>
+          <t>209/800</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>采集时间到！</t>
+          <t>SYUUMATSU GAIDEN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>在「贵本之道-『楚此渚田』」中收获800个采集物。</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>采集时间到！</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>201/800</t>
-        </is>
-      </c>
+          <t>被卷入终末番与愚人众的战斗中…</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SYUUMATSU GAIDEN</t>
+          <t>游医的奥德赛</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>被卷入终末番与愚人众的战斗中…</t>
+          <t>见证保本的结局。</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -724,18 +724,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>游医的奥德赛</t>
+          <t>通通400铃</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>见证保本的结局。</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>成功钓鱼100次。</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>通通400铃</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>924/2000</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -745,7 +751,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>成功钓鱼100次。</t>
+          <t>成功钓鱼500次。</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -755,7 +761,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>921/2000</t>
+          <t>924/2000</t>
         </is>
       </c>
     </row>
@@ -767,7 +773,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>成功钓鱼500次。</t>
+          <t>成功钓鱼2000次。</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -777,41 +783,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>921/2000</t>
+          <t>924/2000</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>通通400铃</t>
+          <t>如愿以偿</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>成功钓鱼2000次。</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>通通400铃</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>921/2000</t>
-        </is>
-      </c>
+          <t>请小卷婆婆占卜五次，并获得理想的结果。</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>如愿以偿</t>
+          <t>猫的赠礼</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>请小卷婆婆占卜五次，并获得理想的结果。</t>
+          <t>在清籁岛上为小猫喂食，并获得它们的好感。</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -822,12 +822,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>猫的赠礼</t>
+          <t>「美好的风景，望不到头」</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>在清籁岛上为小猫喂食，并获得它们的好感。</t>
+          <t>与「船工」告别。</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -838,12 +838,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>益智海域</t>
+          <t>「我有金钟罩♬」</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>在清籁岛上解开一系列机关。</t>
+          <t>通过连续结晶反应，获得超过1分钟的护盾。</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -854,44 +854,56 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>「美好的风景，望不到头」</t>
+          <t>追求极致</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>与「船工」告别。</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>在「说到做到！」中完美完成查耶维奇的所有委托。</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>追求极致</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>雷鸟的系谱</t>
+          <t>过量的思念</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>完成所有「雕像」的挑战。</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>完成五次「愿风带走思念」。</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>过量的思念</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>七个字母</t>
+          <t>略表歉意</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>尝试解读「石根文字」。</t>
+          <t>向提米道歉。</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -902,12 +914,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>神的孩子全跳舞</t>
+          <t>善事有善报</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>和所有的「法厄同」残影对话。</t>
+          <t>拆穿玛乔丽小姐，并获得杰克的答谢。</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -918,12 +930,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>「我有金钟罩♬」</t>
+          <t>「您好，亲爱的爸爸…」</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>通过连续结晶反应，获得超过1分钟的护盾。</t>
+          <t>了解提米的故事。</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -934,56 +946,44 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>追求极致</t>
+          <t>妙手怪医</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>在「说到做到！」中完美完成查耶维奇的所有委托。</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>追求极致</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+          <t>治好安娜的病。</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>过量的思念</t>
+          <t>西风佑我</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>完成五次「愿风带走思念」。</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>过量的思念</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1/5</t>
-        </is>
-      </c>
+          <t>见证吉丽安娜的故事。</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>略表歉意</t>
+          <t>未曾设想的味道</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>向提米道歉。</t>
+          <t>完成神秘特调。</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -994,12 +994,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>善事有善报</t>
+          <t>梦想与工作，诗与面包</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>拆穿玛乔丽小姐，并获得杰克的答谢。</t>
+          <t>完成「所谓『工作』」，并获得霖铃的诗集。</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1010,12 +1010,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>「您好，亲爱的爸爸…」</t>
+          <t>「…而尽人事。」</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>了解提米的故事。</t>
+          <t>破坏了四种爱情运来临的征兆。</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1026,12 +1026,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>妙手怪医</t>
+          <t>这不是应急食品</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>治好安娜的病。</t>
+          <t>在「餐品订单」任务中吃掉了餐品…？</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1042,12 +1042,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>西风佑我</t>
+          <t>瞳孔中的伪装者</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>见证吉丽安娜的故事。</t>
+          <t>帮助珊瑚和龙二破获案件。</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1058,12 +1058,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>未曾设想的味道</t>
+          <t>真相只有一个…？</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>完成神秘特调。</t>
+          <t>见证龙二的故事。</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1074,12 +1074,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>梦想与工作，诗与面包</t>
+          <t>璃月一番</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>完成「所谓『工作』」，并获得霖铃的诗集。</t>
+          <t>用美味的料理治愈汤雯。</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1090,12 +1090,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>「…而尽人事。」</t>
+          <t>噼咔，为什么又是噼咔</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>破坏了四种爱情运来临的征兆。</t>
+          <t>向香菱请教到特别的烹饪手法。</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1106,12 +1106,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>这不是应急食品</t>
+          <t>双人餐行</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>在「餐品订单」任务中吃掉了餐品…？</t>
+          <t>帮助旭东和龟井宗久各完成一次烹饪。</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1122,12 +1122,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>瞳孔中的伪装者</t>
+          <t>饮食问题</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>帮助珊瑚和龙二破获案件。</t>
+          <t>帮助芭尔瓦涅校对全部食谱。</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1138,12 +1138,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>真相只有一个…？</t>
+          <t>武士饭</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>见证龙二的故事。</t>
+          <t>帮助龟井宗久搜集过全部两侧营地的食材。</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1154,12 +1154,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>璃月一番</t>
+          <t>「给您添蘑菇了！」</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>用美味的料理治愈汤雯。</t>
+          <t>在「售后服务」中收到顾客绀田传助的抱怨。</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1170,12 +1170,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>噼咔，为什么又是噼咔</t>
+          <t>饮食武士</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>向香菱请教到特别的烹饪手法。</t>
+          <t>见证龟井宗久加入全能美食队。</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1186,12 +1186,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>双人餐行</t>
+          <t>编辑部的一己之见</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>帮助旭东和龟井宗久各完成一次烹饪。</t>
+          <t>帮助阿茂和顺吉回到正确的创作轨道。</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1202,12 +1202,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>饮食问题</t>
+          <t>同心训练家？</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>帮助芭尔瓦涅校对全部食谱。</t>
+          <t>协助朝仓进行5次训练。</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1218,12 +1218,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>武士饭</t>
+          <t>至少有了个结局</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>帮助龟井宗久搜集过全部两侧营地的食材。</t>
+          <t>听顺吉讲述完他所构思的故事。</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1234,12 +1234,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>「给您添蘑菇了！」</t>
+          <t>安娜冒险记</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>在「售后服务」中收到顾客绀田传助的抱怨。</t>
+          <t>帮助安娜成为一名冒险家。</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1250,194 +1250,18 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>饮食武士</t>
+          <t>远大前程</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>见证龟井宗久加入全能美食队。</t>
+          <t>一位少年即将启程远行…</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>-1</v>
       </c>
       <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>编辑部的一己之见</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>帮助阿茂和顺吉回到正确的创作轨道。</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>同心训练家？</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>协助朝仓进行5次训练。</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>至少有了个结局</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>听顺吉讲述完他所构思的故事。</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>安娜冒险记</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>帮助安娜成为一名冒险家。</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>远大前程</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>一位少年即将启程远行…</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>运气即实力！</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>在不失误的情况下解开机关，取得宝藏。</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>慧眼识妖！</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>正确鉴定所有情报。</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>蒙德做题王</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>阅读诺艾尔的学习笔记。</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>运势无常</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>在神社抽到过所有的运势签。</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>有备才能无患</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>鱼肉，当然是越多越好。</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>严师出高徒</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>在不击中任何「蓝色稻草人」的情况下完成演练。</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
